--- a/bh3/505699190421215106_2021-03-24_18-11-08.xlsx
+++ b/bh3/505699190421215106_2021-03-24_18-11-08.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4547199381</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-05-11 11:21:44</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44327.47342592593</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-31 17:07:04</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44286.71324074074</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,10 +693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-26 00:57:47</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44281.04012731482</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -756,10 +766,8 @@
           <t>4315626317</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:54:26</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44280.91280092593</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -823,10 +831,8 @@
           <t>4315626317</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:33:30</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44280.89826388889</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -894,10 +900,8 @@
           <t>4315626317</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:12:05</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44280.8833912037</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
@@ -961,10 +965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-25 10:43:07</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44280.44660879629</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1024,10 +1026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-25 09:11:09</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44280.38274305555</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1091,10 +1091,8 @@
           <t>4310625195</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-25 08:21:11</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44280.34804398148</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1154,10 +1152,8 @@
           <t>4312435481</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-25 01:48:43</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44280.07549768518</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1229,10 +1225,8 @@
           <t>4310403628</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-25 01:11:01</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44280.04931712963</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1304,10 +1298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-25 00:57:32</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44280.0399537037</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1379,10 +1371,8 @@
           <t>4310403628</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-25 00:38:13</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44280.02653935185</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1458,10 +1448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-25 00:27:43</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44280.01924768519</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1535,10 +1523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-25 00:26:54</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44280.01868055556</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1606,10 +1592,8 @@
           <t>4310625195</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-25 00:24:14</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44280.0168287037</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1677,10 +1661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-25 00:00:23</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44280.0002662037</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1752,10 +1734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-25 00:00:20</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44280.00023148148</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1827,10 +1807,8 @@
           <t>4311959826</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-24 23:31:50</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44279.98043981481</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1894,10 +1872,8 @@
           <t>4311892433</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-24 23:19:05</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44279.97158564815</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1965,10 +1941,8 @@
           <t>4311784113</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-24 23:00:17</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44279.95853009259</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2040,10 +2014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-24 22:53:43</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44279.95396990741</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2120,10 +2092,8 @@
           <t>4311499313</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-24 22:08:30</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44279.92256944445</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2183,10 +2153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-24 22:05:41</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44279.92061342593</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2250,10 +2218,8 @@
           <t>4311445232</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:56:15</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44279.9140625</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2320,10 +2286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:54:29</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44279.91283564815</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2390,10 +2354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:53:17</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44279.91200231481</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2465,10 +2427,8 @@
           <t>4310636498</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:46:11</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44279.90707175926</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2544,10 +2504,8 @@
           <t>4311368242</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:42:06</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44279.90423611111</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2616,10 +2574,8 @@
           <t>4311370100</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:41:06</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44279.90354166667</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2695,10 +2651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:36:14</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44279.90016203704</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2774,10 +2728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:35:20</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44279.89953703704</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2849,10 +2801,8 @@
           <t>4311325059</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:31:57</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44279.8971875</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2920,10 +2870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:31:45</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44279.89704861111</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2987,10 +2935,8 @@
           <t>4311244849</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:18:24</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44279.88777777777</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3054,10 +3000,8 @@
           <t>4310381586</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:17:45</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44279.88732638889</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3125,10 +3069,8 @@
           <t>4311251908</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:17:42</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44279.88729166667</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3192,10 +3134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:17:03</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44279.88684027778</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3263,10 +3203,8 @@
           <t>4311227530</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:14:02</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44279.88474537037</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3338,10 +3276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:13:13</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44279.88417824074</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3413,10 +3349,8 @@
           <t>4311197726</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:08:02</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44279.88057870371</v>
       </c>
       <c r="I42" t="n">
         <v>2</v>
@@ -3484,10 +3418,8 @@
           <t>4311200501</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:07:36</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44279.88027777777</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3551,10 +3483,8 @@
           <t>4311159685</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:00:47</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44279.87554398148</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3622,10 +3552,8 @@
           <t>4311154358</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:59:52</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44279.87490740741</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3693,10 +3621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:58:20</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44279.87384259259</v>
       </c>
       <c r="I46" t="n">
         <v>2</v>
@@ -3760,10 +3686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:54:12</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44279.87097222222</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3835,10 +3759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:42:13</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44279.86265046296</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3914,10 +3836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:41:28</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44279.86212962963</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3989,10 +3909,8 @@
           <t>4311075256</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:41:27</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44279.86211805556</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4068,10 +3986,8 @@
           <t>4311019204</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:31:11</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44279.85498842593</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4147,10 +4063,8 @@
           <t>4311018831</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:30:56</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44279.85481481482</v>
       </c>
       <c r="I52" t="n">
         <v>2</v>
@@ -4214,10 +4128,8 @@
           <t>4310636498</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:28:22</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44279.85303240741</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4285,10 +4197,8 @@
           <t>4311012114</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:28:08</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44279.85287037037</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4356,10 +4266,8 @@
           <t>4310363918</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:22:44</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44279.84912037037</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4423,10 +4331,8 @@
           <t>4310612536</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:21:29</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44279.84825231481</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4498,10 +4404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:21:27</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44279.84822916667</v>
       </c>
       <c r="I57" t="n">
         <v>3</v>
@@ -4569,10 +4473,8 @@
           <t>4310974373</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:21:20</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44279.84814814815</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4636,10 +4538,8 @@
           <t>4310971838</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:19:37</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44279.84695601852</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4707,10 +4607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:11:17</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44279.84116898148</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4782,10 +4680,8 @@
           <t>4310403628</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:02:28</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44279.8350462963</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4857,10 +4753,8 @@
           <t>4310888793</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:02:15</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44279.83489583333</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4932,10 +4826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:53:40</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44279.82893518519</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4999,10 +4891,8 @@
           <t>4310435567</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:45:57</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44279.82357638889</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5074,10 +4964,8 @@
           <t>4310800962</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:43:47</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44279.82207175926</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5145,10 +5033,8 @@
           <t>4310770232</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:43:38</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44279.82196759259</v>
       </c>
       <c r="I66" t="n">
         <v>2</v>
@@ -5226,10 +5112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:41:59</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44279.82082175926</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5297,10 +5181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:41:36</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44279.82055555555</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5368,10 +5250,8 @@
           <t>4310792436</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:41:36</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44279.82055555555</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5435,10 +5315,8 @@
           <t>4310770880</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:37:23</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44279.81762731481</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5513,10 +5391,8 @@
           <t>4310770232</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:36:58</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44279.81733796297</v>
       </c>
       <c r="I71" t="n">
         <v>3</v>
@@ -5584,10 +5460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:35:02</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44279.81599537037</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5659,10 +5533,8 @@
           <t>4310741382</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:31:29</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44279.81353009259</v>
       </c>
       <c r="I73" t="n">
         <v>6</v>
@@ -5730,10 +5602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:30:55</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44279.81313657408</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5805,10 +5675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:27:05</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44279.81047453704</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5876,10 +5744,8 @@
           <t>4310704675</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:24:22</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44279.80858796297</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5951,10 +5817,8 @@
           <t>4310692785</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:20:43</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44279.80605324074</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6026,10 +5890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:17:19</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44279.80369212963</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6097,10 +5959,8 @@
           <t>4310675185</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:16:01</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44279.80278935185</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6168,10 +6028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:14:30</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44279.80173611111</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6239,10 +6097,8 @@
           <t>4310612536</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:13:34</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44279.80108796297</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6318,10 +6174,8 @@
           <t>4310514957</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:10:37</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44279.79903935185</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6385,10 +6239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:09:49</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44279.79848379629</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6453,10 +6305,8 @@
           <t>4310636498</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:09:25</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44279.79820601852</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6524,10 +6374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:08:53</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44279.79783564815</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6595,10 +6443,8 @@
           <t>4310612536</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:07:57</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44279.7971875</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6670,10 +6516,8 @@
           <t>4310396454</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:07:29</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44279.79686342592</v>
       </c>
       <c r="I87" t="n">
         <v>3</v>
@@ -6745,10 +6589,8 @@
           <t>4310548369</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:07:23</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44279.79679398148</v>
       </c>
       <c r="I88" t="n">
         <v>6</v>
@@ -6813,10 +6655,8 @@
           <t>4310625195</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:06:17</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44279.79603009259</v>
       </c>
       <c r="I89" t="n">
         <v>18</v>
@@ -6876,10 +6716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:04:53</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44279.79505787037</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6951,10 +6789,8 @@
           <t>4310612536</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:04:38</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44279.79488425926</v>
       </c>
       <c r="I91" t="n">
         <v>10</v>
@@ -7030,10 +6866,8 @@
           <t>4310605711</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:02:40</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44279.79351851852</v>
       </c>
       <c r="I92" t="n">
         <v>13</v>
@@ -7097,10 +6931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:02:01</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44279.79306712963</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7168,10 +7000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:01:41</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44279.79283564815</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7239,10 +7069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:00:04</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44279.79171296296</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7310,10 +7138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:59:27</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44279.79128472223</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7381,10 +7207,8 @@
           <t>4310590035</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:59:14</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44279.79113425926</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7452,10 +7276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:58:36</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44279.79069444445</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7523,10 +7345,8 @@
           <t>4310447969</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:58:28</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44279.79060185186</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7594,10 +7414,8 @@
           <t>4310581306</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:57:55</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44279.79021990741</v>
       </c>
       <c r="I100" t="n">
         <v>3</v>
@@ -7669,10 +7487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:57:10</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44279.78969907408</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7736,10 +7552,8 @@
           <t>4310576021</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:56:45</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44279.78940972222</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7807,10 +7621,8 @@
           <t>4310568232</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:56:05</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44279.78894675926</v>
       </c>
       <c r="I103" t="n">
         <v>4</v>
@@ -7878,10 +7690,8 @@
           <t>4310561840</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:54:10</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44279.78761574074</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7945,10 +7755,8 @@
           <t>4310560674</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:53:26</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44279.78710648148</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8012,10 +7820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:53:18</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44279.78701388889</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8083,10 +7889,8 @@
           <t>4310548369</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:52:00</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44279.78611111111</v>
       </c>
       <c r="I107" t="n">
         <v>8</v>
@@ -8164,10 +7968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:51:02</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44279.78543981481</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8239,10 +8041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:50:52</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44279.78532407407</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8318,10 +8118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:50:52</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44279.78532407407</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8397,10 +8195,8 @@
           <t>4310403628</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:50:38</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44279.78516203703</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8476,10 +8272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:49:18</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44279.78423611111</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8551,10 +8345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:48:53</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44279.78394675926</v>
       </c>
       <c r="I113" t="n">
         <v>3</v>
@@ -8622,10 +8414,8 @@
           <t>4310536248</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:48:46</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44279.78386574074</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8689,10 +8479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:48:22</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44279.78358796296</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8764,10 +8552,8 @@
           <t>4310390632</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:48:14</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44279.78349537037</v>
       </c>
       <c r="I116" t="n">
         <v>4</v>
@@ -8831,10 +8617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:46:47</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44279.78248842592</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8902,10 +8686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:46:17</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44279.7821412037</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -8977,10 +8759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:45:25</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44279.78153935185</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9048,10 +8828,8 @@
           <t>4310520413</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:45:07</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44279.78133101852</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9123,10 +8901,8 @@
           <t>4310514957</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:44:56</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44279.7812037037</v>
       </c>
       <c r="I121" t="n">
         <v>5</v>
@@ -9198,10 +8974,8 @@
           <t>4310516054</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:44:07</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44279.78063657408</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9273,10 +9047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:43:51</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44279.78045138889</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9348,10 +9120,8 @@
           <t>4310503963</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:42:45</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44279.7796875</v>
       </c>
       <c r="I124" t="n">
         <v>19</v>
@@ -9423,10 +9193,8 @@
           <t>4310510906</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:42:25</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44279.77945601852</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9498,10 +9266,8 @@
           <t>4310363918</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:41:43</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44279.77896990741</v>
       </c>
       <c r="I126" t="n">
         <v>10</v>
@@ -9573,10 +9339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:41:39</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44279.77892361111</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9648,10 +9412,8 @@
           <t>4310403628</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:39:40</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44279.7775462963</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9719,10 +9481,8 @@
           <t>4310483755</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:37:57</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44279.77635416666</v>
       </c>
       <c r="I129" t="n">
         <v>4</v>
@@ -9782,10 +9542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:36:45</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44279.77552083333</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -9853,10 +9611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:36:39</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44279.77545138889</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -9924,10 +9680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:36:03</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44279.77503472222</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9995,10 +9749,8 @@
           <t>4310435567</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:34:46</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44279.77414351852</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10070,10 +9822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:34:20</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44279.77384259259</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10141,10 +9891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:33:57</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44279.77357638889</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10212,10 +9960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:33:38</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44279.77335648148</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10283,10 +10029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:33:21</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44279.77315972222</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10358,10 +10102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:32:40</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44279.77268518518</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10437,10 +10179,8 @@
           <t>4310435567</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:32:14</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44279.77238425926</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10516,10 +10256,8 @@
           <t>4310435567</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:32:06</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44279.77229166667</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10583,10 +10321,8 @@
           <t>4310374242</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:31:35</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44279.77193287037</v>
       </c>
       <c r="I141" t="n">
         <v>10</v>
@@ -10662,10 +10398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:31:26</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44279.77182870371</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10737,10 +10471,8 @@
           <t>4310447969</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:31:02</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44279.77155092593</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10800,10 +10532,8 @@
           <t>4310390632</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:30:50</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44279.77141203704</v>
       </c>
       <c r="I144" t="n">
         <v>6</v>
@@ -10875,10 +10605,8 @@
           <t>4310452121</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:30:44</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44279.77134259259</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10938,10 +10666,8 @@
           <t>4310451506</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:30:21</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44279.77107638889</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11006,10 +10732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:30:20</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44279.77106481481</v>
       </c>
       <c r="I147" t="n">
         <v>2</v>
@@ -11077,10 +10801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:29:49</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44279.77070601852</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11144,10 +10866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:29:37</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44279.77056712963</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11219,10 +10939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:29:27</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44279.77045138889</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11290,10 +11008,8 @@
           <t>4310450048</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:29:25</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44279.77042824074</v>
       </c>
       <c r="I151" t="n">
         <v>3</v>
@@ -11353,10 +11069,8 @@
           <t>4310390632</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:29:11</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44279.7702662037</v>
       </c>
       <c r="I152" t="n">
         <v>14</v>
@@ -11428,10 +11142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:28:26</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44279.76974537037</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11503,10 +11215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:28:20</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44279.76967592593</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11582,10 +11292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:27:58</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44279.7694212963</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11661,10 +11369,8 @@
           <t>4310437775</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:27:58</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44279.7694212963</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11736,10 +11442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:27:46</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44279.7692824074</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11811,10 +11515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:27:21</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44279.76899305556</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11886,10 +11588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:26:44</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44279.76856481482</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11953,10 +11653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:26:42</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44279.76854166666</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12016,10 +11714,8 @@
           <t>4310374242</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:26:42</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44279.76854166666</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12087,10 +11783,8 @@
           <t>4310435567</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:26:35</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44279.76846064815</v>
       </c>
       <c r="I162" t="n">
         <v>30</v>
@@ -12162,10 +11856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:26:07</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44279.76813657407</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12233,10 +11925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:25:50</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44279.76793981482</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12304,10 +11994,8 @@
           <t>4310374242</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:25:40</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44279.76782407407</v>
       </c>
       <c r="I165" t="n">
         <v>5</v>
@@ -12383,10 +12071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:25:12</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44279.7675</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12450,10 +12136,8 @@
           <t>4310396454</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:25:03</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44279.76739583333</v>
       </c>
       <c r="I167" t="n">
         <v>3</v>
@@ -12529,10 +12213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:24:56</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44279.76731481482</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12604,10 +12286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:24:55</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44279.76730324074</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12667,10 +12347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:24:09</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44279.76677083333</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12742,10 +12420,8 @@
           <t>4310363918</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:24:03</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44279.76670138889</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -12821,10 +12497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:23:55</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44279.76660879629</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12892,10 +12566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:23:40</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44279.76643518519</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12967,10 +12639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:23:20</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44279.7662037037</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13046,10 +12716,8 @@
           <t>4310415782</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:23:11</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44279.76609953704</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13121,10 +12789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:23:00</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44279.76597222222</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13184,10 +12850,8 @@
           <t>4310409469</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:22:41</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44279.76575231482</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13259,10 +12923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:22:40</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44279.76574074074</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13326,10 +12988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:22:21</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44279.76552083333</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13393,10 +13053,8 @@
           <t>4310412082</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:22:21</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44279.76552083333</v>
       </c>
       <c r="I180" t="n">
         <v>8</v>
@@ -13472,10 +13130,8 @@
           <t>4310404133</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:22:05</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44279.76533564815</v>
       </c>
       <c r="I181" t="n">
         <v>8</v>
@@ -13551,10 +13207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:22:02</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44279.76530092592</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13630,10 +13284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:21:52</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44279.76518518518</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13701,10 +13353,8 @@
           <t>4310403628</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:21:46</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44279.76511574074</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13776,10 +13426,8 @@
           <t>4310410880</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:21:33</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44279.76496527778</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13855,10 +13503,8 @@
           <t>4310396454</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:21:30</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44279.76493055555</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -13934,10 +13580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:21:29</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44279.76491898148</v>
       </c>
       <c r="I187" t="n">
         <v>10</v>
@@ -14013,10 +13657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:21:28</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44279.76490740741</v>
       </c>
       <c r="I188" t="n">
         <v>3</v>
@@ -14088,10 +13730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:21:24</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44279.76486111111</v>
       </c>
       <c r="I189" t="n">
         <v>9</v>
@@ -14155,10 +13795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:21:13</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44279.7647337963</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14234,10 +13872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:21:09</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44279.7646875</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14305,10 +13941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:21:08</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44279.76467592592</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14376,10 +14010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:21:00</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44279.76458333333</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14455,10 +14087,8 @@
           <t>4310363918</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:20:56</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44279.76453703704</v>
       </c>
       <c r="I194" t="n">
         <v>15</v>
@@ -14526,10 +14156,8 @@
           <t>4310363918</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:20:25</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44279.76417824074</v>
       </c>
       <c r="I195" t="n">
         <v>26</v>
@@ -14589,10 +14217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:20:05</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44279.76394675926</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14664,10 +14290,8 @@
           <t>4310381586</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:20:03</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44279.76392361111</v>
       </c>
       <c r="I197" t="n">
         <v>58</v>
@@ -14731,10 +14355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:19:55</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44279.76383101852</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14806,10 +14428,8 @@
           <t>4310398157</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:19:44</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44279.76370370371</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -14881,10 +14501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:19:43</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44279.76369212963</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14954,10 +14572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:19:40</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44279.76365740741</v>
       </c>
       <c r="I201" t="n">
         <v>26</v>
@@ -15033,10 +14649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:19:29</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44279.76353009259</v>
       </c>
       <c r="I202" t="n">
         <v>164</v>
@@ -15112,10 +14726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:19:19</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44279.76341435185</v>
       </c>
       <c r="I203" t="n">
         <v>2</v>
@@ -15187,10 +14799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:19:07</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44279.76327546296</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15254,10 +14864,8 @@
           <t>4310381586</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:19:04</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44279.76324074074</v>
       </c>
       <c r="I205" t="n">
         <v>4</v>
@@ -15321,10 +14929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:18:57</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44279.76315972222</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15392,10 +14998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:18:53</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44279.76311342593</v>
       </c>
       <c r="I207" t="n">
         <v>2</v>
@@ -15472,10 +15076,8 @@
           <t>4310381586</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:18:48</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44279.76305555556</v>
       </c>
       <c r="I208" t="n">
         <v>24</v>
@@ -15539,10 +15141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:18:46</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44279.76303240741</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15610,10 +15210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:18:43</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44279.76299768518</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15689,10 +15287,8 @@
           <t>4310393193</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:18:42</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44279.76298611111</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15764,10 +15360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:18:41</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44279.76297453704</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15843,10 +15437,8 @@
           <t>4310396454</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:18:38</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44279.76293981481</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -15922,10 +15514,8 @@
           <t>4310392097</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:18:02</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44279.76252314815</v>
       </c>
       <c r="I214" t="n">
         <v>3</v>
@@ -15997,10 +15587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:17:59</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44279.76248842593</v>
       </c>
       <c r="I215" t="n">
         <v>2</v>
@@ -16068,10 +15656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:17:54</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44279.76243055556</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16139,10 +15725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:17:34</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44279.76219907407</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16202,10 +15786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:17:26</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44279.76210648148</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16274,10 +15856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:17:22</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44279.76206018519</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16341,10 +15921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:17:09</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44279.76190972222</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16420,10 +15998,8 @@
           <t>4310390632</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:17:07</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44279.76188657407</v>
       </c>
       <c r="I221" t="n">
         <v>34</v>
@@ -16499,10 +16075,8 @@
           <t>4310381586</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:17:02</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44279.7618287037</v>
       </c>
       <c r="I222" t="n">
         <v>52</v>
@@ -16574,10 +16148,8 @@
           <t>4310386144</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:17:01</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44279.76181712963</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16646,10 +16218,8 @@
           <t>4310383787</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:16:55</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44279.76174768519</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16721,10 +16291,8 @@
           <t>4310390142</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:16:48</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44279.76166666667</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16793,10 +16361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:16:47</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44279.7616550926</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16864,10 +16430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:16:47</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44279.7616550926</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16943,10 +16507,8 @@
           <t>4310381586</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:16:45</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44279.76163194444</v>
       </c>
       <c r="I228" t="n">
         <v>3</v>
@@ -17022,10 +16584,8 @@
           <t>4310390004</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:16:43</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44279.7616087963</v>
       </c>
       <c r="I229" t="n">
         <v>4</v>
@@ -17085,10 +16645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:16:40</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44279.76157407407</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17165,10 +16723,8 @@
           <t>4310363918</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:16:37</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44279.76153935185</v>
       </c>
       <c r="I231" t="n">
         <v>2</v>
@@ -17244,10 +16800,8 @@
           <t>4310381586</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:16:36</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44279.76152777778</v>
       </c>
       <c r="I232" t="n">
         <v>47</v>
@@ -17319,10 +16873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:16:15</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44279.76128472222</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17394,10 +16946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:16:07</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44279.76119212963</v>
       </c>
       <c r="I234" t="n">
         <v>36</v>
@@ -17473,10 +17023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:16:07</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44279.76119212963</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17544,10 +17092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:15:59</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44279.76109953703</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17619,10 +17165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:15:55</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44279.76105324074</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17698,10 +17242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:15:51</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44279.76100694444</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17777,10 +17319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:15:48</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44279.76097222222</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17856,10 +17396,8 @@
           <t>4310374242</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:15:48</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44279.76097222222</v>
       </c>
       <c r="I240" t="n">
         <v>20</v>
@@ -17927,10 +17465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:15:46</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44279.76094907407</v>
       </c>
       <c r="I241" t="n">
         <v>60</v>
@@ -18002,10 +17538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:15:42</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44279.76090277778</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18069,10 +17603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:15:38</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44279.76085648148</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18148,10 +17680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:15:33</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44279.76079861111</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18215,10 +17745,8 @@
           <t>4310381586</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:15:29</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44279.76075231482</v>
       </c>
       <c r="I245" t="n">
         <v>4</v>
@@ -18282,10 +17810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:15:22</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44279.7606712963</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18350,10 +17876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:15:10</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44279.76053240741</v>
       </c>
       <c r="I247" t="n">
         <v>187</v>
@@ -18429,10 +17953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:14:53</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44279.76033564815</v>
       </c>
       <c r="I248" t="n">
         <v>14</v>
@@ -18500,10 +18022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:14:42</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44279.76020833333</v>
       </c>
       <c r="I249" t="n">
         <v>2</v>
@@ -18571,10 +18091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:14:40</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44279.76018518519</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18638,10 +18156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:14:32</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44279.76009259259</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18717,10 +18233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:14:31</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44279.76008101852</v>
       </c>
       <c r="I252" t="n">
         <v>10</v>
@@ -18792,10 +18306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:14:28</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44279.76004629629</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18867,10 +18379,8 @@
           <t>4310363918</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:14:19</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44279.75994212963</v>
       </c>
       <c r="I254" t="n">
         <v>8</v>
@@ -18946,10 +18456,8 @@
           <t>4310371689</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:14:12</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44279.75986111111</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -19025,10 +18533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:13:53</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44279.7596412037</v>
       </c>
       <c r="I256" t="n">
         <v>90</v>
@@ -19092,10 +18598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:13:47</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44279.75957175926</v>
       </c>
       <c r="I257" t="n">
         <v>16</v>
@@ -19159,10 +18663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:13:42</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44279.75951388889</v>
       </c>
       <c r="I258" t="n">
         <v>263</v>
@@ -19236,10 +18738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:13:28</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44279.75935185186</v>
       </c>
       <c r="I259" t="n">
         <v>392</v>
@@ -19307,10 +18807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:13:26</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44279.7593287037</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19374,10 +18872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:13:04</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44279.75907407407</v>
       </c>
       <c r="I261" t="n">
         <v>8</v>
@@ -19453,10 +18949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:13:04</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44279.75907407407</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19524,10 +19018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:13:01</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44279.75903935185</v>
       </c>
       <c r="I263" t="n">
         <v>3</v>
@@ -19599,10 +19091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:12:58</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44279.75900462963</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19666,10 +19156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:12:52</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44279.75893518519</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19737,10 +19225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:12:36</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44279.75875</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19816,10 +19302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:12:35</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44279.75873842592</v>
       </c>
       <c r="I267" t="n">
         <v>2</v>
@@ -19887,10 +19371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:12:29</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44279.75866898148</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19958,10 +19440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:12:22</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44279.75858796296</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20037,10 +19517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:12:21</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44279.75857638889</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -20108,10 +19586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:12:17</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44279.75853009259</v>
       </c>
       <c r="I271" t="n">
         <v>5</v>
@@ -20179,10 +19655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:12:17</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44279.75853009259</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20258,10 +19732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:12:15</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44279.75850694445</v>
       </c>
       <c r="I273" t="n">
         <v>114</v>
@@ -20325,10 +19797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:12:15</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44279.75850694445</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20404,10 +19874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:12:11</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44279.75846064815</v>
       </c>
       <c r="I275" t="n">
         <v>725</v>
@@ -20483,10 +19951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:12:03</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44279.75836805555</v>
       </c>
       <c r="I276" t="n">
         <v>204</v>
@@ -20554,10 +20020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:11:52</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44279.75824074074</v>
       </c>
       <c r="I277" t="n">
         <v>27</v>
@@ -20629,10 +20093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:11:52</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44279.75824074074</v>
       </c>
       <c r="I278" t="n">
         <v>8</v>
@@ -20708,10 +20170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:11:52</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44279.75824074074</v>
       </c>
       <c r="I279" t="n">
         <v>437</v>
@@ -20790,10 +20250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:11:51</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44279.75822916667</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20861,10 +20319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:11:48</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44279.75819444445</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
